--- a/data/pca/factorExposure/factorExposure_2017-04-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-04-18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.019962810714252</v>
+        <v>0.01021968686220356</v>
       </c>
       <c r="C2">
-        <v>-0.01270569443497503</v>
+        <v>-0.04183911801775612</v>
       </c>
       <c r="D2">
-        <v>-0.03463532623884521</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.02961639734285911</v>
+      </c>
+      <c r="E2">
+        <v>-0.03659055139960297</v>
+      </c>
+      <c r="F2">
+        <v>-0.006981192829125952</v>
+      </c>
+      <c r="G2">
+        <v>0.1024082377160109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.02064034601703439</v>
+        <v>0.04162836376211378</v>
       </c>
       <c r="C3">
-        <v>0.0122630772016448</v>
+        <v>-0.1016825092642147</v>
       </c>
       <c r="D3">
-        <v>-0.1067258841542002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.0176650503664695</v>
+      </c>
+      <c r="E3">
+        <v>-0.1004359100789443</v>
+      </c>
+      <c r="F3">
+        <v>-0.0003717833425392522</v>
+      </c>
+      <c r="G3">
+        <v>0.1620290219042057</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02476607563220455</v>
+        <v>0.05671844843688515</v>
       </c>
       <c r="C4">
-        <v>-0.003887562259610257</v>
+        <v>-0.06763096528496822</v>
       </c>
       <c r="D4">
-        <v>-0.08592507484222549</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.02450732277223321</v>
+      </c>
+      <c r="E4">
+        <v>-0.03290583063249149</v>
+      </c>
+      <c r="F4">
+        <v>-0.01006787336690835</v>
+      </c>
+      <c r="G4">
+        <v>0.100371151593825</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01060113060462455</v>
+        <v>0.0369904208636949</v>
       </c>
       <c r="C6">
-        <v>-0.01192352223374051</v>
+        <v>-0.0513365661574536</v>
       </c>
       <c r="D6">
-        <v>-0.07896544866437026</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01711463007909356</v>
+      </c>
+      <c r="E6">
+        <v>-0.03678425203332087</v>
+      </c>
+      <c r="F6">
+        <v>-0.008231072553711907</v>
+      </c>
+      <c r="G6">
+        <v>0.08398251353881049</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.006331542932063033</v>
+        <v>0.0211118978166338</v>
       </c>
       <c r="C7">
-        <v>-0.01107991091564473</v>
+        <v>-0.03927031622633235</v>
       </c>
       <c r="D7">
-        <v>-0.03397260795444315</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.01404121216380879</v>
+      </c>
+      <c r="E7">
+        <v>-0.006424762097151489</v>
+      </c>
+      <c r="F7">
+        <v>0.004565241481710469</v>
+      </c>
+      <c r="G7">
+        <v>0.1225683657254697</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.001291210354358109</v>
+        <v>0.003948135259953603</v>
       </c>
       <c r="C8">
-        <v>0.0006301599146774348</v>
+        <v>-0.02507893513868359</v>
       </c>
       <c r="D8">
-        <v>0.00120030157974076</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.003792188571702729</v>
+      </c>
+      <c r="E8">
+        <v>-0.02833589740943246</v>
+      </c>
+      <c r="F8">
+        <v>-0.006398332033347189</v>
+      </c>
+      <c r="G8">
+        <v>0.06521158287131118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01608650718674731</v>
+        <v>0.03438527999940798</v>
       </c>
       <c r="C9">
-        <v>-0.001861136295948436</v>
+        <v>-0.05027705927819148</v>
       </c>
       <c r="D9">
-        <v>-0.06370399120387907</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.01652144184437164</v>
+      </c>
+      <c r="E9">
+        <v>-0.0229749843996963</v>
+      </c>
+      <c r="F9">
+        <v>-0.006443404152777904</v>
+      </c>
+      <c r="G9">
+        <v>0.100878819358487</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1013735847790759</v>
+        <v>0.09852656902275309</v>
       </c>
       <c r="C10">
-        <v>0.1575181854789887</v>
+        <v>0.1830711431242682</v>
       </c>
       <c r="D10">
-        <v>0.09713801760619881</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01558669447627154</v>
+      </c>
+      <c r="E10">
+        <v>-0.01942576935755843</v>
+      </c>
+      <c r="F10">
+        <v>0.02155670462190404</v>
+      </c>
+      <c r="G10">
+        <v>0.05561521242257336</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0004472264358410027</v>
+        <v>0.03452098173180297</v>
       </c>
       <c r="C11">
-        <v>-0.001135503676059715</v>
+        <v>-0.05356256600927777</v>
       </c>
       <c r="D11">
-        <v>-0.05409486041333684</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.002559203518624884</v>
+      </c>
+      <c r="E11">
+        <v>-0.01800067932372598</v>
+      </c>
+      <c r="F11">
+        <v>-0.01963716068187182</v>
+      </c>
+      <c r="G11">
+        <v>0.09167746218339634</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.004250073549442538</v>
+        <v>0.03603151773776942</v>
       </c>
       <c r="C12">
-        <v>-0.003850239400382934</v>
+        <v>-0.04869487074569271</v>
       </c>
       <c r="D12">
-        <v>-0.04709339294178262</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.006607084242770625</v>
+      </c>
+      <c r="E12">
+        <v>-0.009527987915232617</v>
+      </c>
+      <c r="F12">
+        <v>-0.001222911674394459</v>
+      </c>
+      <c r="G12">
+        <v>0.08287633969445346</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02288423500168981</v>
+        <v>0.01593044151410457</v>
       </c>
       <c r="C13">
-        <v>-0.004234824912687341</v>
+        <v>-0.04149439069748959</v>
       </c>
       <c r="D13">
-        <v>-0.03950765722844123</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.0265282195856882</v>
+      </c>
+      <c r="E13">
+        <v>-0.03744761581539469</v>
+      </c>
+      <c r="F13">
+        <v>-0.004333809992185658</v>
+      </c>
+      <c r="G13">
+        <v>0.1372824267259051</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.007087657627208795</v>
+        <v>0.008507381833941391</v>
       </c>
       <c r="C14">
-        <v>-0.002045917162231028</v>
+        <v>-0.02911963131371297</v>
       </c>
       <c r="D14">
-        <v>-0.01883917273266367</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01028586587275016</v>
+      </c>
+      <c r="E14">
+        <v>-0.007127716850521832</v>
+      </c>
+      <c r="F14">
+        <v>0.007983250831121837</v>
+      </c>
+      <c r="G14">
+        <v>0.1062680397475691</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.002818992082975327</v>
+        <v>0.03311889685362462</v>
       </c>
       <c r="C16">
-        <v>0.002792746719412763</v>
+        <v>-0.04661436024509035</v>
       </c>
       <c r="D16">
-        <v>-0.04297567409243326</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.002026615765815525</v>
+      </c>
+      <c r="E16">
+        <v>-0.01567923304427532</v>
+      </c>
+      <c r="F16">
+        <v>-0.001037045280305679</v>
+      </c>
+      <c r="G16">
+        <v>0.09289296600906152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01253791967022267</v>
+        <v>0.02291832173533594</v>
       </c>
       <c r="C19">
-        <v>-0.004574888170188299</v>
+        <v>-0.05155413352001294</v>
       </c>
       <c r="D19">
-        <v>-0.04256734532161864</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.01904948771667996</v>
+      </c>
+      <c r="E19">
+        <v>-0.07796864397550547</v>
+      </c>
+      <c r="F19">
+        <v>-0.01957007818901848</v>
+      </c>
+      <c r="G19">
+        <v>0.1383854932152465</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.007374782443710372</v>
+        <v>0.01540544228941157</v>
       </c>
       <c r="C20">
-        <v>-0.008140796642870783</v>
+        <v>-0.04146676480396434</v>
       </c>
       <c r="D20">
-        <v>-0.03608930355196555</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.01435877778525337</v>
+      </c>
+      <c r="E20">
+        <v>-0.03779843073217722</v>
+      </c>
+      <c r="F20">
+        <v>0.01186589526956092</v>
+      </c>
+      <c r="G20">
+        <v>0.1115422291112515</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01646722416483961</v>
+        <v>0.01271826246813778</v>
       </c>
       <c r="C21">
-        <v>0.00101931851316445</v>
+        <v>-0.03878105678427692</v>
       </c>
       <c r="D21">
-        <v>-0.0259726308143989</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.01922526638949413</v>
+      </c>
+      <c r="E21">
+        <v>-0.05039232985138418</v>
+      </c>
+      <c r="F21">
+        <v>0.001539993443067396</v>
+      </c>
+      <c r="G21">
+        <v>0.1379186946723188</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001310307645944093</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.0002023171854756389</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.0006228832502656615</v>
+      </c>
+      <c r="E22">
+        <v>-0.003958937458641423</v>
+      </c>
+      <c r="F22">
+        <v>-0.002072147272821629</v>
+      </c>
+      <c r="G22">
+        <v>0.005563643926060513</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.001315845635698085</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.0002140808486469775</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.0006216947883627479</v>
+      </c>
+      <c r="E23">
+        <v>-0.003946102685672485</v>
+      </c>
+      <c r="F23">
+        <v>-0.002078173812463628</v>
+      </c>
+      <c r="G23">
+        <v>0.005455718816316921</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.0005175704385387454</v>
+        <v>0.02845590200983151</v>
       </c>
       <c r="C24">
-        <v>-0.008722854276197943</v>
+        <v>-0.0512037309621648</v>
       </c>
       <c r="D24">
-        <v>-0.04678315616019466</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.007357562944453596</v>
+      </c>
+      <c r="E24">
+        <v>-0.01294990882007777</v>
+      </c>
+      <c r="F24">
+        <v>-0.0116521884947946</v>
+      </c>
+      <c r="G24">
+        <v>0.09248500224309268</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01492866106558299</v>
+        <v>0.04260819235709603</v>
       </c>
       <c r="C25">
-        <v>0.003072657466932793</v>
+        <v>-0.0584527403716181</v>
       </c>
       <c r="D25">
-        <v>-0.05880365448143685</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.01133056862693844</v>
+      </c>
+      <c r="E25">
+        <v>-0.004539219006092761</v>
+      </c>
+      <c r="F25">
+        <v>-0.005581327530661493</v>
+      </c>
+      <c r="G25">
+        <v>0.100352543289336</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02096824099218537</v>
+        <v>0.01398139205013165</v>
       </c>
       <c r="C26">
-        <v>-0.008443257262812379</v>
+        <v>-0.01201262198158295</v>
       </c>
       <c r="D26">
-        <v>-0.002169860699279625</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02415399368643537</v>
+      </c>
+      <c r="E26">
+        <v>-0.009246935050922457</v>
+      </c>
+      <c r="F26">
+        <v>0.009775289439198698</v>
+      </c>
+      <c r="G26">
+        <v>0.08341337784362481</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1444107261635164</v>
+        <v>0.1247660173530996</v>
       </c>
       <c r="C28">
-        <v>0.1983174207392531</v>
+        <v>0.2394829486465833</v>
       </c>
       <c r="D28">
-        <v>0.1212572849937107</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.006555383519384749</v>
+      </c>
+      <c r="E28">
+        <v>-0.008901485782418377</v>
+      </c>
+      <c r="F28">
+        <v>0.01458798134778286</v>
+      </c>
+      <c r="G28">
+        <v>0.04732345952078861</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.01102336235213046</v>
+        <v>0.009245191830267094</v>
       </c>
       <c r="C29">
-        <v>0.004257413508413552</v>
+        <v>-0.02299141634303552</v>
       </c>
       <c r="D29">
-        <v>-0.01948095087526744</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.009328982976221353</v>
+      </c>
+      <c r="E29">
+        <v>-0.004342188178256291</v>
+      </c>
+      <c r="F29">
+        <v>0.01506792868225436</v>
+      </c>
+      <c r="G29">
+        <v>0.09736518282347521</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.0168484068746883</v>
+        <v>0.04202146204325957</v>
       </c>
       <c r="C30">
-        <v>-0.01829456187407773</v>
+        <v>-0.06981346099231606</v>
       </c>
       <c r="D30">
-        <v>-0.101173693924066</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.02898395592938317</v>
+      </c>
+      <c r="E30">
+        <v>-0.0609667249670793</v>
+      </c>
+      <c r="F30">
+        <v>-0.04444890517488869</v>
+      </c>
+      <c r="G30">
+        <v>0.1312077480452236</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.02004831820948644</v>
+        <v>0.05356690921597874</v>
       </c>
       <c r="C31">
-        <v>0.02035269619048359</v>
+        <v>-0.03728856564453815</v>
       </c>
       <c r="D31">
-        <v>-0.03333700881740782</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.003817979240140146</v>
+      </c>
+      <c r="E31">
+        <v>-0.000346117871517493</v>
+      </c>
+      <c r="F31">
+        <v>0.04169852108776786</v>
+      </c>
+      <c r="G31">
+        <v>0.09891727141507525</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.0003194733787294921</v>
+        <v>0.003222774033610445</v>
       </c>
       <c r="C32">
-        <v>0.01515206282471192</v>
+        <v>-0.0239763599827326</v>
       </c>
       <c r="D32">
-        <v>-0.005828235919016222</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.002960536607481453</v>
+      </c>
+      <c r="E32">
+        <v>-0.03486204298921523</v>
+      </c>
+      <c r="F32">
+        <v>-0.04171674128370671</v>
+      </c>
+      <c r="G32">
+        <v>0.08468879146595848</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01118380510706111</v>
+        <v>0.02849007512141771</v>
       </c>
       <c r="C33">
-        <v>-0.003747488424330229</v>
+        <v>-0.05015057977303312</v>
       </c>
       <c r="D33">
-        <v>-0.04325205672130187</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.01584461203691923</v>
+      </c>
+      <c r="E33">
+        <v>-0.04437943206225291</v>
+      </c>
+      <c r="F33">
+        <v>-0.01428488734979029</v>
+      </c>
+      <c r="G33">
+        <v>0.1629908179742676</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.002228014527926184</v>
+        <v>0.0400778539412991</v>
       </c>
       <c r="C34">
-        <v>0.01309303312501373</v>
+        <v>-0.05958836429051628</v>
       </c>
       <c r="D34">
-        <v>-0.05767916568154655</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.004422430393850119</v>
+      </c>
+      <c r="E34">
+        <v>-0.008216142859988201</v>
+      </c>
+      <c r="F34">
+        <v>-0.02045946455096815</v>
+      </c>
+      <c r="G34">
+        <v>0.09517229750103606</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01644835894799938</v>
+        <v>0.01645224939947357</v>
       </c>
       <c r="C36">
-        <v>0.005262951448251007</v>
+        <v>-0.009421733001250212</v>
       </c>
       <c r="D36">
-        <v>-0.005010715015957805</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01257050720260289</v>
+      </c>
+      <c r="E36">
+        <v>-0.008822325481908203</v>
+      </c>
+      <c r="F36">
+        <v>0.007692057631018332</v>
+      </c>
+      <c r="G36">
+        <v>0.09222710736316181</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.008202615362708315</v>
+        <v>0.03154113655878666</v>
       </c>
       <c r="C38">
-        <v>0.02466652354863459</v>
+        <v>-0.03002848874273066</v>
       </c>
       <c r="D38">
-        <v>-0.04258212366405453</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.007374608655607102</v>
+      </c>
+      <c r="E38">
+        <v>-0.007523851896432433</v>
+      </c>
+      <c r="F38">
+        <v>0.01832277959162129</v>
+      </c>
+      <c r="G38">
+        <v>0.08661484192877528</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.006369722617883772</v>
+        <v>0.03665516479393457</v>
       </c>
       <c r="C39">
-        <v>-0.02531521620729014</v>
+        <v>-0.08009932883236023</v>
       </c>
       <c r="D39">
-        <v>-0.1009845284844487</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.01181557823030327</v>
+      </c>
+      <c r="E39">
+        <v>-0.02965903561467897</v>
+      </c>
+      <c r="F39">
+        <v>-0.02253161923208667</v>
+      </c>
+      <c r="G39">
+        <v>0.09071882326813283</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.0160225733570751</v>
+        <v>0.01422174248864218</v>
       </c>
       <c r="C40">
-        <v>0.004876168048593358</v>
+        <v>-0.03957667121059997</v>
       </c>
       <c r="D40">
-        <v>-0.03638222458287935</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01482346119421307</v>
+      </c>
+      <c r="E40">
+        <v>-0.03230153477250482</v>
+      </c>
+      <c r="F40">
+        <v>0.00920039883397924</v>
+      </c>
+      <c r="G40">
+        <v>0.1178915441091997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01363322641626468</v>
+        <v>0.02067880929410099</v>
       </c>
       <c r="C41">
-        <v>0.01436764189952937</v>
+        <v>-0.002262978537886175</v>
       </c>
       <c r="D41">
-        <v>0.008739936210250713</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.004469845612770276</v>
+      </c>
+      <c r="E41">
+        <v>-0.007482855701075939</v>
+      </c>
+      <c r="F41">
+        <v>0.01607432856239402</v>
+      </c>
+      <c r="G41">
+        <v>0.08560337297581111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.06743012063371442</v>
+        <v>0.0101576093932296</v>
       </c>
       <c r="C42">
-        <v>-0.06819252175358857</v>
+        <v>-0.03538544839905973</v>
       </c>
       <c r="D42">
-        <v>-0.1654057821070138</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.08955295791441666</v>
+      </c>
+      <c r="E42">
+        <v>-0.01868964447104198</v>
+      </c>
+      <c r="F42">
+        <v>0.0478109638037347</v>
+      </c>
+      <c r="G42">
+        <v>-0.03294392311796702</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.01457371944525837</v>
+        <v>0.03533009514424089</v>
       </c>
       <c r="C43">
-        <v>0.0143187024380552</v>
+        <v>-0.01843751065507013</v>
       </c>
       <c r="D43">
-        <v>0.007934267689369185</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.005927629432577144</v>
+      </c>
+      <c r="E43">
+        <v>-0.02143667157959948</v>
+      </c>
+      <c r="F43">
+        <v>0.00791972494390177</v>
+      </c>
+      <c r="G43">
+        <v>0.1205748552700503</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.002100425368894321</v>
+        <v>0.01393373159246847</v>
       </c>
       <c r="C44">
-        <v>-0.002220247488693831</v>
+        <v>-0.05898090406283892</v>
       </c>
       <c r="D44">
-        <v>-0.05567806216575737</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.007058174652803284</v>
+      </c>
+      <c r="E44">
+        <v>-0.02517507219142835</v>
+      </c>
+      <c r="F44">
+        <v>0.004177010864248391</v>
+      </c>
+      <c r="G44">
+        <v>0.1119597692013061</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01080766275875076</v>
+        <v>0.008117648077301476</v>
       </c>
       <c r="C46">
-        <v>-0.001107990873160402</v>
+        <v>-0.01438659947640016</v>
       </c>
       <c r="D46">
-        <v>0.004602590355197255</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01273428739327017</v>
+      </c>
+      <c r="E46">
+        <v>-0.001662596264789623</v>
+      </c>
+      <c r="F46">
+        <v>0.01571437986058255</v>
+      </c>
+      <c r="G46">
+        <v>0.1065517867865904</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.01477561685677232</v>
+        <v>0.07765669598139192</v>
       </c>
       <c r="C47">
-        <v>0.0240610574717666</v>
+        <v>-0.06823049693449146</v>
       </c>
       <c r="D47">
-        <v>-0.07399413570857145</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.004720284311366106</v>
+      </c>
+      <c r="E47">
+        <v>0.005729916639247887</v>
+      </c>
+      <c r="F47">
+        <v>0.05432671954424309</v>
+      </c>
+      <c r="G47">
+        <v>0.08569959268888101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.0088096860149718</v>
+        <v>0.01900852005478995</v>
       </c>
       <c r="C48">
-        <v>0.01065181192075069</v>
+        <v>-0.01282674914291547</v>
       </c>
       <c r="D48">
-        <v>-0.01819729962956033</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.002296288868051658</v>
+      </c>
+      <c r="E48">
+        <v>-0.005079421808915055</v>
+      </c>
+      <c r="F48">
+        <v>0.01913929206310434</v>
+      </c>
+      <c r="G48">
+        <v>0.09733439682536041</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.02202646904668213</v>
+        <v>0.07593283154442293</v>
       </c>
       <c r="C50">
-        <v>0.03164317377081644</v>
+        <v>-0.07140055311298556</v>
       </c>
       <c r="D50">
-        <v>-0.07085635024942348</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.002152256160781009</v>
+      </c>
+      <c r="E50">
+        <v>0.002925631105930303</v>
+      </c>
+      <c r="F50">
+        <v>0.0574609677328119</v>
+      </c>
+      <c r="G50">
+        <v>0.09309790872613811</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.008205579403362886</v>
+        <v>0.0145970711277634</v>
       </c>
       <c r="C51">
-        <v>0.001561389626532702</v>
+        <v>-0.03624668562065935</v>
       </c>
       <c r="D51">
-        <v>-0.01812842999639412</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01074849386547583</v>
+      </c>
+      <c r="E51">
+        <v>-0.02600907730546024</v>
+      </c>
+      <c r="F51">
+        <v>-0.02427315081674764</v>
+      </c>
+      <c r="G51">
+        <v>0.1227856219878392</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.02418942504644212</v>
+        <v>0.08220464752285193</v>
       </c>
       <c r="C53">
-        <v>0.03358772726909432</v>
+        <v>-0.0850166383645343</v>
       </c>
       <c r="D53">
-        <v>-0.1291449629453489</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.003358851835966659</v>
+      </c>
+      <c r="E53">
+        <v>0.02564068380110004</v>
+      </c>
+      <c r="F53">
+        <v>0.06446985158923907</v>
+      </c>
+      <c r="G53">
+        <v>0.09348318826913694</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.01248032546900741</v>
+        <v>0.03179494539992341</v>
       </c>
       <c r="C54">
-        <v>0.02367390159442716</v>
+        <v>-0.01910258257724245</v>
       </c>
       <c r="D54">
-        <v>0.004319234509591027</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.001249563122513354</v>
+      </c>
+      <c r="E54">
+        <v>-0.01870158617022618</v>
+      </c>
+      <c r="F54">
+        <v>0.005334360110911578</v>
+      </c>
+      <c r="G54">
+        <v>0.1068336807690645</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.01343258538064975</v>
+        <v>0.07232646380758477</v>
       </c>
       <c r="C55">
-        <v>0.01983248332474164</v>
+        <v>-0.06836904478269176</v>
       </c>
       <c r="D55">
-        <v>-0.1025864340559405</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.004888529091178505</v>
+      </c>
+      <c r="E55">
+        <v>0.02331493468710325</v>
+      </c>
+      <c r="F55">
+        <v>0.06439188168366472</v>
+      </c>
+      <c r="G55">
+        <v>0.07015366670679103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.02524934652750018</v>
+        <v>0.1366165293621774</v>
       </c>
       <c r="C56">
-        <v>0.04167776631233241</v>
+        <v>-0.1071475214393723</v>
       </c>
       <c r="D56">
-        <v>-0.1601738456951809</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01233468339567882</v>
+      </c>
+      <c r="E56">
+        <v>0.03329454010549327</v>
+      </c>
+      <c r="F56">
+        <v>0.08108396382695461</v>
+      </c>
+      <c r="G56">
+        <v>0.04324144237639763</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02311210469558847</v>
+        <v>0.005904946889354801</v>
       </c>
       <c r="C57">
-        <v>-0.006141846723181728</v>
+        <v>-0.006829853132571874</v>
       </c>
       <c r="D57">
-        <v>-0.0347287432502338</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.02284978759532451</v>
+      </c>
+      <c r="E57">
+        <v>-0.02524847326673731</v>
+      </c>
+      <c r="F57">
+        <v>-0.008879391435481342</v>
+      </c>
+      <c r="G57">
+        <v>0.02387380083173899</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.01758131009736124</v>
+        <v>0.05383152475480061</v>
       </c>
       <c r="C58">
-        <v>0.0224103768062924</v>
+        <v>-0.04720259497244511</v>
       </c>
       <c r="D58">
-        <v>-0.1294839547440347</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.02009443992964339</v>
+      </c>
+      <c r="E58">
+        <v>-0.9105982399500032</v>
+      </c>
+      <c r="F58">
+        <v>0.278398997404084</v>
+      </c>
+      <c r="G58">
+        <v>-0.2283592939887639</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1550996197507171</v>
+        <v>0.1598267811216226</v>
       </c>
       <c r="C59">
-        <v>0.2215605310107659</v>
+        <v>0.2055149727305104</v>
       </c>
       <c r="D59">
-        <v>0.1055882265106703</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.01180404614812734</v>
+      </c>
+      <c r="E59">
+        <v>-0.01910600603325364</v>
+      </c>
+      <c r="F59">
+        <v>0.003872142597842204</v>
+      </c>
+      <c r="G59">
+        <v>0.04160989970891962</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.1292664369116923</v>
+        <v>0.2888855406177796</v>
       </c>
       <c r="C60">
-        <v>0.1515726305015247</v>
+        <v>-0.1080599815954777</v>
       </c>
       <c r="D60">
-        <v>-0.1454469859422665</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.01118672936771346</v>
+      </c>
+      <c r="E60">
+        <v>-0.001825009881301597</v>
+      </c>
+      <c r="F60">
+        <v>-0.3375223235582012</v>
+      </c>
+      <c r="G60">
+        <v>-0.1634732868237078</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.002004906084912807</v>
+        <v>0.03937998252196358</v>
       </c>
       <c r="C61">
-        <v>-0.003091540673400676</v>
+        <v>-0.06621257499490359</v>
       </c>
       <c r="D61">
-        <v>-0.07718862912109471</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.005538331195369208</v>
+      </c>
+      <c r="E61">
+        <v>-0.02397336050430168</v>
+      </c>
+      <c r="F61">
+        <v>-0.013392877819218</v>
+      </c>
+      <c r="G61">
+        <v>0.09634624419154843</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.006494826783281218</v>
+        <v>0.01578846806652153</v>
       </c>
       <c r="C63">
-        <v>-0.004140506757215679</v>
+        <v>-0.03038294723165765</v>
       </c>
       <c r="D63">
-        <v>-0.02348883548997365</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.008607768778443657</v>
+      </c>
+      <c r="E63">
+        <v>-0.003495060462064025</v>
+      </c>
+      <c r="F63">
+        <v>0.0197167003771432</v>
+      </c>
+      <c r="G63">
+        <v>0.09372995655668923</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.0213634603257752</v>
+        <v>0.04918542141003533</v>
       </c>
       <c r="C64">
-        <v>0.0208740651700135</v>
+        <v>-0.04704656560353242</v>
       </c>
       <c r="D64">
-        <v>-0.06423133520882181</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.006621609575661315</v>
+      </c>
+      <c r="E64">
+        <v>-0.009975370061733324</v>
+      </c>
+      <c r="F64">
+        <v>-0.007675976406453272</v>
+      </c>
+      <c r="G64">
+        <v>0.1038956667378546</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.02293539090154939</v>
+        <v>0.0754510092761473</v>
       </c>
       <c r="C65">
-        <v>0.002063226003858392</v>
+        <v>-0.05770749959789026</v>
       </c>
       <c r="D65">
-        <v>-0.1150719496097245</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.01659016909646093</v>
+      </c>
+      <c r="E65">
+        <v>-0.03845075100288888</v>
+      </c>
+      <c r="F65">
+        <v>-0.02898347559883189</v>
+      </c>
+      <c r="G65">
+        <v>0.04137571522005628</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.005265568462220566</v>
+        <v>0.05143388894392886</v>
       </c>
       <c r="C66">
-        <v>-0.02314193001661719</v>
+        <v>-0.1071013807017629</v>
       </c>
       <c r="D66">
-        <v>-0.1358043734274718</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.01169100255186729</v>
+      </c>
+      <c r="E66">
+        <v>-0.04044204678233186</v>
+      </c>
+      <c r="F66">
+        <v>-0.03413953876451011</v>
+      </c>
+      <c r="G66">
+        <v>0.1045635092335459</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.02239460545276456</v>
+        <v>0.05421304644809113</v>
       </c>
       <c r="C67">
-        <v>0.038890544542003</v>
+        <v>-0.03336272410822624</v>
       </c>
       <c r="D67">
-        <v>-0.06092819832290753</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.005859322232632755</v>
+      </c>
+      <c r="E67">
+        <v>0.001187134853426602</v>
+      </c>
+      <c r="F67">
+        <v>0.01747005250694404</v>
+      </c>
+      <c r="G67">
+        <v>0.07555273717363339</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1685613129160771</v>
+        <v>0.1550391550438423</v>
       </c>
       <c r="C68">
-        <v>0.2078788620360792</v>
+        <v>0.2688818939281601</v>
       </c>
       <c r="D68">
-        <v>0.1490539755270449</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.005435857340275942</v>
+      </c>
+      <c r="E68">
+        <v>-0.01220453200129487</v>
+      </c>
+      <c r="F68">
+        <v>0.037835118528142</v>
+      </c>
+      <c r="G68">
+        <v>0.02976125990822895</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.01849694158677871</v>
+        <v>0.08291812882767906</v>
       </c>
       <c r="C69">
-        <v>0.03586780041435462</v>
+        <v>-0.0701209366974575</v>
       </c>
       <c r="D69">
-        <v>-0.07999926613915395</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.008788431754202618</v>
+      </c>
+      <c r="E69">
+        <v>0.02098588450751344</v>
+      </c>
+      <c r="F69">
+        <v>0.0369668857433627</v>
+      </c>
+      <c r="G69">
+        <v>0.1019647239406601</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1350112876079823</v>
+        <v>0.1403495109152001</v>
       </c>
       <c r="C71">
-        <v>0.177184301384507</v>
+        <v>0.2307016314674044</v>
       </c>
       <c r="D71">
-        <v>0.1031006747496038</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.003055659994971573</v>
+      </c>
+      <c r="E71">
+        <v>-0.0324790193054854</v>
+      </c>
+      <c r="F71">
+        <v>0.02469226345329642</v>
+      </c>
+      <c r="G71">
+        <v>0.07090066163618233</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.006771635237863123</v>
+        <v>0.08581337469198574</v>
       </c>
       <c r="C72">
-        <v>0.01892357882033638</v>
+        <v>-0.06806925124383013</v>
       </c>
       <c r="D72">
-        <v>-0.1042064184939547</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.008388999007248083</v>
+      </c>
+      <c r="E72">
+        <v>0.007177492819864478</v>
+      </c>
+      <c r="F72">
+        <v>-0.03940504175808219</v>
+      </c>
+      <c r="G72">
+        <v>0.08645218708743778</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.1566690842074789</v>
+        <v>0.3774802855218362</v>
       </c>
       <c r="C73">
-        <v>0.1728631791697601</v>
+        <v>-0.1153591236771726</v>
       </c>
       <c r="D73">
-        <v>-0.2686694342892768</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01991700884827291</v>
+      </c>
+      <c r="E73">
+        <v>-0.08222994060021745</v>
+      </c>
+      <c r="F73">
+        <v>-0.575107820835719</v>
+      </c>
+      <c r="G73">
+        <v>-0.2936923032130444</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.02429645255195411</v>
+        <v>0.1052073740111902</v>
       </c>
       <c r="C74">
-        <v>0.04297703547596707</v>
+        <v>-0.1088385787657232</v>
       </c>
       <c r="D74">
-        <v>-0.1712460961962296</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.009381357946590917</v>
+      </c>
+      <c r="E74">
+        <v>0.008637262533362826</v>
+      </c>
+      <c r="F74">
+        <v>0.06973610517818768</v>
+      </c>
+      <c r="G74">
+        <v>0.08319892534249272</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.06510559753441666</v>
+        <v>0.2471601745193475</v>
       </c>
       <c r="C75">
-        <v>0.1073202044158001</v>
+        <v>-0.151527627680383</v>
       </c>
       <c r="D75">
-        <v>-0.2992578090314117</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03049932452242957</v>
+      </c>
+      <c r="E75">
+        <v>0.07130695495518534</v>
+      </c>
+      <c r="F75">
+        <v>0.1669153783019455</v>
+      </c>
+      <c r="G75">
+        <v>-0.01998242060693554</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.0290448295786756</v>
+        <v>0.1189529190619524</v>
       </c>
       <c r="C76">
-        <v>0.05920578089773369</v>
+        <v>-0.1097028751223088</v>
       </c>
       <c r="D76">
-        <v>-0.2081436664001551</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01779893227709926</v>
+      </c>
+      <c r="E76">
+        <v>0.02646037806017369</v>
+      </c>
+      <c r="F76">
+        <v>0.1054854553760101</v>
+      </c>
+      <c r="G76">
+        <v>0.05945176755837814</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01839804290833366</v>
+        <v>0.06955805483943246</v>
       </c>
       <c r="C77">
-        <v>0.007401255321247042</v>
+        <v>-0.05827001099748336</v>
       </c>
       <c r="D77">
-        <v>-0.07359518708516785</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.01066528951863587</v>
+      </c>
+      <c r="E77">
+        <v>-0.04770993085593978</v>
+      </c>
+      <c r="F77">
+        <v>-0.008476604480188277</v>
+      </c>
+      <c r="G77">
+        <v>0.06788348910909799</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.009090626698103369</v>
+        <v>0.04360767429880439</v>
       </c>
       <c r="C78">
-        <v>0.006021441521474597</v>
+        <v>-0.04952373223466004</v>
       </c>
       <c r="D78">
-        <v>-0.067288423839016</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.005850487167472076</v>
+      </c>
+      <c r="E78">
+        <v>-0.02917182133038121</v>
+      </c>
+      <c r="F78">
+        <v>-0.03706860515714597</v>
+      </c>
+      <c r="G78">
+        <v>0.1033185364808756</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.0001230118994050387</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-0.0001746560975743736</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-6.144364809168132e-06</v>
+      </c>
+      <c r="E79">
+        <v>-0.0007074070258761564</v>
+      </c>
+      <c r="F79">
+        <v>-0.0008322868859658711</v>
+      </c>
+      <c r="G79">
+        <v>-0.0009791530544884246</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.02717998970000519</v>
+        <v>0.04310139132499909</v>
       </c>
       <c r="C80">
-        <v>0.0174100435012126</v>
+        <v>-0.05174944515153689</v>
       </c>
       <c r="D80">
-        <v>-0.08399098510428997</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01332734455991747</v>
+      </c>
+      <c r="E80">
+        <v>-0.02480823138358616</v>
+      </c>
+      <c r="F80">
+        <v>-0.01328138455216324</v>
+      </c>
+      <c r="G80">
+        <v>0.05440903065302483</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.0388121690743064</v>
+        <v>0.1370985642722092</v>
       </c>
       <c r="C81">
-        <v>0.06222928725737283</v>
+        <v>-0.09542143381898278</v>
       </c>
       <c r="D81">
-        <v>-0.1682648399323829</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01455605073336058</v>
+      </c>
+      <c r="E81">
+        <v>0.03465799433184769</v>
+      </c>
+      <c r="F81">
+        <v>0.1259942533001479</v>
+      </c>
+      <c r="G81">
+        <v>0.02455799028015501</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.133202311363187</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.07887992994602333</v>
       </c>
       <c r="D82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.009328287847259647</v>
+      </c>
+      <c r="E82">
+        <v>0.1011937442501618</v>
+      </c>
+      <c r="F82">
+        <v>0.04851112046720878</v>
+      </c>
+      <c r="G82">
+        <v>0.06583616680255458</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.01400763249014061</v>
+        <v>0.03653018161024673</v>
       </c>
       <c r="C83">
-        <v>0.012686264880974</v>
+        <v>-0.02832131782675914</v>
       </c>
       <c r="D83">
-        <v>-0.0304072168353291</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.005929334718933513</v>
+      </c>
+      <c r="E83">
+        <v>-0.03099873002328846</v>
+      </c>
+      <c r="F83">
+        <v>-0.02869827380102051</v>
+      </c>
+      <c r="G83">
+        <v>0.06320290984299143</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.0627179254782799</v>
+        <v>0.2124314203376109</v>
       </c>
       <c r="C85">
-        <v>0.08308832652957014</v>
+        <v>-0.1472566876300936</v>
       </c>
       <c r="D85">
-        <v>-0.2785018595485174</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.0168553318454232</v>
+      </c>
+      <c r="E85">
+        <v>0.103480886612699</v>
+      </c>
+      <c r="F85">
+        <v>0.119586072404771</v>
+      </c>
+      <c r="G85">
+        <v>-0.06106972702681299</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01551826667693377</v>
+        <v>0.01490370028306863</v>
       </c>
       <c r="C86">
-        <v>0.01242952667214566</v>
+        <v>-0.02503552719965058</v>
       </c>
       <c r="D86">
-        <v>-0.04692388562520647</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.01161743518685054</v>
+      </c>
+      <c r="E86">
+        <v>-0.05176870316049161</v>
+      </c>
+      <c r="F86">
+        <v>-0.01871062273843539</v>
+      </c>
+      <c r="G86">
+        <v>0.1887650346690273</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.003553637739140253</v>
+        <v>0.0219022038403963</v>
       </c>
       <c r="C87">
-        <v>-0.009610508616080747</v>
+        <v>-0.02208397802614998</v>
       </c>
       <c r="D87">
-        <v>-0.04699862894414079</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.01191737730920135</v>
+      </c>
+      <c r="E87">
+        <v>-0.09437300190663662</v>
+      </c>
+      <c r="F87">
+        <v>-0.008539484443775865</v>
+      </c>
+      <c r="G87">
+        <v>0.1223360803850195</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.03925397635200423</v>
+        <v>0.09463100351689802</v>
       </c>
       <c r="C88">
-        <v>0.0148877227988055</v>
+        <v>-0.06833421222443441</v>
       </c>
       <c r="D88">
-        <v>-0.0579651487825811</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02224548891486968</v>
+      </c>
+      <c r="E88">
+        <v>0.003355180808531788</v>
+      </c>
+      <c r="F88">
+        <v>0.02102305339412116</v>
+      </c>
+      <c r="G88">
+        <v>0.1014506872286665</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.2453340419408838</v>
+        <v>0.2315995631434193</v>
       </c>
       <c r="C89">
-        <v>0.3165231014905016</v>
+        <v>0.3693241407593881</v>
       </c>
       <c r="D89">
-        <v>0.184734080689953</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.0004761007507791521</v>
+      </c>
+      <c r="E89">
+        <v>0.01901335032452448</v>
+      </c>
+      <c r="F89">
+        <v>0.02822086104544477</v>
+      </c>
+      <c r="G89">
+        <v>0.07087054186051607</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.2007153579751764</v>
+        <v>0.2072628908230773</v>
       </c>
       <c r="C90">
-        <v>0.2647396519418499</v>
+        <v>0.318231425652012</v>
       </c>
       <c r="D90">
-        <v>0.171058086133587</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.004734758927320325</v>
+      </c>
+      <c r="E90">
+        <v>-0.001162220156727069</v>
+      </c>
+      <c r="F90">
+        <v>0.04675801023896631</v>
+      </c>
+      <c r="G90">
+        <v>0.04614683653922214</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.05401795994921198</v>
+        <v>0.1854905719494054</v>
       </c>
       <c r="C91">
-        <v>0.09280128604827419</v>
+        <v>-0.1419792405952075</v>
       </c>
       <c r="D91">
-        <v>-0.2278408677196114</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.02152710726849721</v>
+      </c>
+      <c r="E91">
+        <v>0.06450796218723359</v>
+      </c>
+      <c r="F91">
+        <v>0.14157226302829</v>
+      </c>
+      <c r="G91">
+        <v>0.03487776249888862</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.160498663941477</v>
+        <v>0.198331777769283</v>
       </c>
       <c r="C92">
-        <v>0.2616631716489912</v>
+        <v>0.2575411838722836</v>
       </c>
       <c r="D92">
-        <v>0.07256173407440727</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.03814726460961065</v>
+      </c>
+      <c r="E92">
+        <v>-0.04352330568184734</v>
+      </c>
+      <c r="F92">
+        <v>0.05816099833678227</v>
+      </c>
+      <c r="G92">
+        <v>0.1122787942782096</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.2093410633815175</v>
+        <v>0.2302621805867851</v>
       </c>
       <c r="C93">
-        <v>0.2846170092877589</v>
+        <v>0.314660965672974</v>
       </c>
       <c r="D93">
-        <v>0.137830648128986</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.0114169427468653</v>
+      </c>
+      <c r="E93">
+        <v>-0.005784151403873331</v>
+      </c>
+      <c r="F93">
+        <v>0.04327158725822238</v>
+      </c>
+      <c r="G93">
+        <v>0.05826107978052995</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1025974209649822</v>
+        <v>0.3189399650624435</v>
       </c>
       <c r="C94">
-        <v>0.1253678624689346</v>
+        <v>-0.1786894577462768</v>
       </c>
       <c r="D94">
-        <v>-0.3101475161956062</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.01819286199958155</v>
+      </c>
+      <c r="E94">
+        <v>0.2209649345450317</v>
+      </c>
+      <c r="F94">
+        <v>0.4759743790421585</v>
+      </c>
+      <c r="G94">
+        <v>-0.4146965459717623</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.002802849354884458</v>
+        <v>0.1012696006440892</v>
       </c>
       <c r="C95">
-        <v>0.00878790787157986</v>
+        <v>-0.08826617009767115</v>
       </c>
       <c r="D95">
-        <v>-0.1187747013984638</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.009915606573005166</v>
+      </c>
+      <c r="E95">
+        <v>-0.08291546016345509</v>
+      </c>
+      <c r="F95">
+        <v>-0.2027139555004969</v>
+      </c>
+      <c r="G95">
+        <v>0.00790774464412056</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.08586299804413791</v>
+        <v>0.1956304525939984</v>
       </c>
       <c r="C98">
-        <v>0.1383958769299433</v>
+        <v>-0.04485402820972076</v>
       </c>
       <c r="D98">
-        <v>-0.1386972687172092</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01391681507587834</v>
+      </c>
+      <c r="E98">
+        <v>-0.07284520962738392</v>
+      </c>
+      <c r="F98">
+        <v>-0.2383494461080648</v>
+      </c>
+      <c r="G98">
+        <v>-0.02883268614751701</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.01077642752558782</v>
+        <v>0.009028003125538166</v>
       </c>
       <c r="C101">
-        <v>0.004179852227858989</v>
+        <v>-0.02302140992140189</v>
       </c>
       <c r="D101">
-        <v>-0.01946540988139817</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.00917304684847488</v>
+      </c>
+      <c r="E101">
+        <v>-0.004155779081740411</v>
+      </c>
+      <c r="F101">
+        <v>0.01602538227110732</v>
+      </c>
+      <c r="G101">
+        <v>0.09634251182868966</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.03982251091736833</v>
+        <v>0.115624360878751</v>
       </c>
       <c r="C102">
-        <v>0.04148772834837028</v>
+        <v>-0.08407205107613687</v>
       </c>
       <c r="D102">
-        <v>-0.1344171084802657</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.001070732308969522</v>
+      </c>
+      <c r="E102">
+        <v>0.03624305737309735</v>
+      </c>
+      <c r="F102">
+        <v>0.03924980931518419</v>
+      </c>
+      <c r="G102">
+        <v>0.01314667822402433</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.7966409960487484</v>
+        <v>0.02118974177458818</v>
       </c>
       <c r="C104">
-        <v>-0.5890134061354794</v>
+        <v>0.03086939547807163</v>
       </c>
       <c r="D104">
-        <v>0.0347220399785618</v>
+        <v>-0.9879081418066366</v>
+      </c>
+      <c r="E104">
+        <v>0.04835625741809517</v>
+      </c>
+      <c r="F104">
+        <v>0.03260459039094483</v>
+      </c>
+      <c r="G104">
+        <v>-0.03898826689537891</v>
       </c>
     </row>
   </sheetData>
